--- a/Format data.xlsx
+++ b/Format data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\coret\TGPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Linear-programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B681AFA-551D-4741-8779-913D1DD6067B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9FE9C9-7C0B-4631-8BBC-C05BD8F1B003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71CC5FD6-BD97-4A54-8D8C-4F9A6FD59EBF}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{71CC5FD6-BD97-4A54-8D8C-4F9A6FD59EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>No</t>
   </si>
@@ -72,13 +73,50 @@
   </si>
   <si>
     <t>Tanggal penjualan</t>
+  </si>
+  <si>
+    <t>Ukuran kecil</t>
+  </si>
+  <si>
+    <t>Ukuran besar</t>
+  </si>
+  <si>
+    <t>Batasan</t>
+  </si>
+  <si>
+    <t>pakan 1 ml</t>
+  </si>
+  <si>
+    <t>pakan 0.5 ml</t>
+  </si>
+  <si>
+    <t>pakan halus</t>
+  </si>
+  <si>
+    <t>Gaji karyawan</t>
+  </si>
+  <si>
+    <t>Umur</t>
+  </si>
+  <si>
+    <t>panjang ikan</t>
+  </si>
+  <si>
+    <t>Harga satuan</t>
+  </si>
+  <si>
+    <t>Jumlah terjual</t>
+  </si>
+  <si>
+    <t>Ukuran sedang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -122,18 +160,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359367C8-EEC2-41C0-BB67-4ED6883AFDA3}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -936,4 +977,216 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F13219A-197C-459B-B818-2157BAE03509}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4">
+        <v>60000</v>
+      </c>
+      <c r="C2" s="4">
+        <v>77000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4">
+        <v>63000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>85000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>105000</v>
+      </c>
+      <c r="E3" s="4">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4">
+        <v>270000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>220000</v>
+      </c>
+      <c r="D4" s="4">
+        <f>3/12*E4</f>
+        <v>150000</v>
+      </c>
+      <c r="E4" s="4">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20000</v>
+      </c>
+      <c r="C5" s="4">
+        <v>20000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>30000</v>
+      </c>
+      <c r="E5" s="4">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>70000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>70000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>70000</v>
+      </c>
+      <c r="E6" s="4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1300000</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1300000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1300000</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3900000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>300</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>25000</v>
+      </c>
+      <c r="C11">
+        <v>23000</v>
+      </c>
+      <c r="D11">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4">
+        <f>B11*B10-SUM(B2:B7)</f>
+        <v>5717000</v>
+      </c>
+      <c r="C12" s="4">
+        <f>C11*C10-SUM(C2:C7)</f>
+        <v>7428000</v>
+      </c>
+      <c r="D12" s="4">
+        <f>D11*D10-SUM(D2:D7)</f>
+        <v>8245000</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>